--- a/data/Summer.xlsx
+++ b/data/Summer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\discord-bot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87981C37-AFB6-47D3-B82B-04A547956BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD2162-9BB1-423E-BB95-A2F8C047CD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8D4349A2-DBF0-4FF6-98DB-19588B9E6A9B}"/>
   </bookViews>
@@ -47,58 +47,58 @@
     <t>d20</t>
   </si>
   <si>
-    <t>Дождь</t>
-  </si>
-  <si>
     <t>Сильный дождь</t>
   </si>
   <si>
-    <t>Моросящий дождь</t>
-  </si>
-  <si>
     <t>Лёгкий дождь</t>
   </si>
   <si>
-    <t>Пасмурно</t>
-  </si>
-  <si>
     <t>Лёгкий туман</t>
   </si>
   <si>
     <t>Сильный туман</t>
   </si>
   <si>
-    <t>Переменная облачность</t>
-  </si>
-  <si>
     <t>Без изменений</t>
   </si>
   <si>
     <t>Ветрено</t>
   </si>
   <si>
-    <t>Ясно</t>
-  </si>
-  <si>
-    <t>Жара (Зной)</t>
-  </si>
-  <si>
     <t>Жарко</t>
   </si>
   <si>
     <t>Жарко, ветрено</t>
   </si>
   <si>
-    <t>Морской шторм</t>
-  </si>
-  <si>
     <t>Сильный ветер</t>
   </si>
   <si>
-    <t>Гроза</t>
-  </si>
-  <si>
     <t>Сильный дождь, молнии, сильный ветер</t>
+  </si>
+  <si>
+    <t>🌧️Дождь</t>
+  </si>
+  <si>
+    <t>🌧️Моросящий дождь</t>
+  </si>
+  <si>
+    <t>🌫️Пасмурно</t>
+  </si>
+  <si>
+    <t>☀️Ясно</t>
+  </si>
+  <si>
+    <t>🌤️Переменная облачность</t>
+  </si>
+  <si>
+    <t>🔥Жара (Зной)</t>
+  </si>
+  <si>
+    <t>🌊Морской шторм</t>
+  </si>
+  <si>
+    <t>⛈️Гроза</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,98 +532,98 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,10 +642,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,10 +653,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,76 +664,76 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
